--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Email Address</t>
   </si>
@@ -25,13 +25,16 @@
     <t>Email HTML Body</t>
   </si>
   <si>
+    <t>barryli081@gmail.com</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Test Participation</t>
+  </si>
+  <si>
     <t>sarahwong9566@gmail.com</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Hi</t>
   </si>
 </sst>
 </file>
@@ -82,10 +85,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -392,15 +398,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="41.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="53.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="41.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="53.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -414,14 +420,25 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\OneDrive\Desktop\python-outlook-mail-merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9278B98-329E-45D5-8DF1-8DD178E2E327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588A301B-2AB2-4CAE-B932-C8ABDBDE197D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>email</t>
   </si>
@@ -36,16 +36,66 @@
     <t>response_id</t>
   </si>
   <si>
-    <t>voucher</t>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>bayi_li@sutd.edu.sg</t>
+  </si>
+  <si>
+    <t>sarah_wong@mymail.sutd.edu.sg</t>
+  </si>
+  <si>
+    <t>brigid_trenerry@sutd.edu.sg</t>
+  </si>
+  <si>
+    <t>Thank you for your participation in our survey</t>
   </si>
   <si>
     <t>sarahwong9566@gmail.com</t>
   </si>
   <si>
-    <t>barryli081@gmail.com</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>Dear Xin Ye Ling,
+Thank you for participating in our survey.
+Please find your vouchers below. There are 5 x $5 vouchers so $25 in total. Please find the links below - you can use the QR code to redeem in-store.
+https://www.fairprice.com.sg/voucher/2cce10075ad48ca08e06fd488cc29192f747012a2768cc9159e76600cdd09750
+https://www.fairprice.com.sg/voucher/1a0637d8b268546b55ff3a8068a7047d080d7355550286fc58e266690378d08d
+https://www.fairprice.com.sg/voucher/49b5365816f6d6125bb2d756611b693aa2707c35d869db467aea48dfd556f3c5
+https://www.fairprice.com.sg/voucher/acdda024228729a6eea44cccb43db60c788a49d408d59279d129c18d62b38f06
+https://www.fairprice.com.sg/voucher/e0c378c6214c897dfb0915dcd4cc95c4592aaee6a4048960ee033604c22665ce
+IMPORTANT: Please reply to this email to confirm you have received the vouchers.
+Thank you again for your participation in this research.
+Sincerely,
+LKYCIC Human Wildlife Team</t>
+  </si>
+  <si>
+    <t>voucher_1</t>
+  </si>
+  <si>
+    <t>voucher_2</t>
+  </si>
+  <si>
+    <t>voucher_3</t>
+  </si>
+  <si>
+    <t>voucher_4</t>
+  </si>
+  <si>
+    <t>voucher_5</t>
+  </si>
+  <si>
+    <t>https://www.fairprice.com.sg/voucher/2cce10075ad48ca08e06fd488cc29192f747012a2768cc9159e76600cdd09750</t>
+  </si>
+  <si>
+    <t>https://www.fairprice.com.sg/voucher/1a0637d8b268546b55ff3a8068a7047d080d7355550286fc58e266690378d08d</t>
+  </si>
+  <si>
+    <t>https://www.fairprice.com.sg/voucher/49b5365816f6d6125bb2d756611b693aa2707c35d869db467aea48dfd556f3c5</t>
+  </si>
+  <si>
+    <t>https://www.fairprice.com.sg/voucher/acdda024228729a6eea44cccb43db60c788a49d408d59279d129c18d62b38f06</t>
+  </si>
+  <si>
+    <t>https://www.fairprice.com.sg/voucher/e0c378c6214c897dfb0915dcd4cc95c4592aaee6a4048960ee033604c22665ce</t>
   </si>
 </sst>
 </file>
@@ -61,20 +111,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,15 +140,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -383,54 +447,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>89440158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>89440158</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>89440158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>89440158</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5B2207C9-37A1-4439-95B9-AB2CFB7611AF}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{80AB6B18-9266-4D85-89A7-879A9CC2BB02}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{CE7494E0-8E48-4F70-B936-FA7C267E02D4}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{B4093146-2E24-43F0-BE94-EE3195609C2A}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{805FA490-2322-4776-8A9F-B65212AC7A3F}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{9A563FF3-128F-4A07-9DFB-2C11E814BCA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\OneDrive\Desktop\python-outlook-mail-merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588A301B-2AB2-4CAE-B932-C8ABDBDE197D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376AC159-61CD-4F72-8B1A-C95BE1B47D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>email</t>
   </si>
@@ -39,35 +39,9 @@
     <t>subject</t>
   </si>
   <si>
-    <t>bayi_li@sutd.edu.sg</t>
-  </si>
-  <si>
-    <t>sarah_wong@mymail.sutd.edu.sg</t>
-  </si>
-  <si>
-    <t>brigid_trenerry@sutd.edu.sg</t>
-  </si>
-  <si>
-    <t>Thank you for your participation in our survey</t>
-  </si>
-  <si>
     <t>sarahwong9566@gmail.com</t>
   </si>
   <si>
-    <t>Dear Xin Ye Ling,
-Thank you for participating in our survey.
-Please find your vouchers below. There are 5 x $5 vouchers so $25 in total. Please find the links below - you can use the QR code to redeem in-store.
-https://www.fairprice.com.sg/voucher/2cce10075ad48ca08e06fd488cc29192f747012a2768cc9159e76600cdd09750
-https://www.fairprice.com.sg/voucher/1a0637d8b268546b55ff3a8068a7047d080d7355550286fc58e266690378d08d
-https://www.fairprice.com.sg/voucher/49b5365816f6d6125bb2d756611b693aa2707c35d869db467aea48dfd556f3c5
-https://www.fairprice.com.sg/voucher/acdda024228729a6eea44cccb43db60c788a49d408d59279d129c18d62b38f06
-https://www.fairprice.com.sg/voucher/e0c378c6214c897dfb0915dcd4cc95c4592aaee6a4048960ee033604c22665ce
-IMPORTANT: Please reply to this email to confirm you have received the vouchers.
-Thank you again for your participation in this research.
-Sincerely,
-LKYCIC Human Wildlife Team</t>
-  </si>
-  <si>
     <t>voucher_1</t>
   </si>
   <si>
@@ -83,19 +57,19 @@
     <t>voucher_5</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/voucher/2cce10075ad48ca08e06fd488cc29192f747012a2768cc9159e76600cdd09750</t>
-  </si>
-  <si>
-    <t>https://www.fairprice.com.sg/voucher/1a0637d8b268546b55ff3a8068a7047d080d7355550286fc58e266690378d08d</t>
-  </si>
-  <si>
-    <t>https://www.fairprice.com.sg/voucher/49b5365816f6d6125bb2d756611b693aa2707c35d869db467aea48dfd556f3c5</t>
-  </si>
-  <si>
-    <t>https://www.fairprice.com.sg/voucher/acdda024228729a6eea44cccb43db60c788a49d408d59279d129c18d62b38f06</t>
-  </si>
-  <si>
-    <t>https://www.fairprice.com.sg/voucher/e0c378c6214c897dfb0915dcd4cc95c4592aaee6a4048960ee033604c22665ce</t>
+    <t>wooongus@gmail.com</t>
+  </si>
+  <si>
+    <t>s10202881@connect.np.edu.sg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=irZ-sXAZKF0</t>
+  </si>
+  <si>
+    <t>Thank you for participating in our survey</t>
+  </si>
+  <si>
+    <t>hi</t>
   </si>
 </sst>
 </file>
@@ -160,12 +134,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -447,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,19 +450,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -489,125 +470,98 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D2">
         <v>89440158</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D3">
         <v>89440158</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D4">
         <v>89440158</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>89440158</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{CE7494E0-8E48-4F70-B936-FA7C267E02D4}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{B4093146-2E24-43F0-BE94-EE3195609C2A}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{805FA490-2322-4776-8A9F-B65212AC7A3F}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{9A563FF3-128F-4A07-9DFB-2C11E814BCA4}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B4093146-2E24-43F0-BE94-EE3195609C2A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{55E4DB74-06D6-4A47-8B87-C8C560FEEA92}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{79BE788B-3691-4433-B8E4-97400E26F96C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>